--- a/Materias/Inscripcion 2010 2do cuatrimestre - Opciones.xlsx
+++ b/Materias/Inscripcion 2010 2do cuatrimestre - Opciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Horario Materias" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="122">
   <si>
     <t>PO martes 09:00 11:00 PC-310</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Analisis Matematico IIA</t>
+  </si>
+  <si>
+    <t>ELEGIDA</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -612,12 +621,15 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,10 +946,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1622,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1643,27 +1655,27 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1680,13 +1692,13 @@
       <c r="E4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>98</v>
       </c>
       <c r="I4" s="26"/>
@@ -1703,11 +1715,11 @@
         <v>0.375</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>98</v>
       </c>
       <c r="G5" s="26"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>98</v>
       </c>
       <c r="I5" s="26"/>
@@ -1724,11 +1736,11 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="26"/>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>99</v>
       </c>
       <c r="I6" s="26"/>
@@ -1745,11 +1757,11 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="26"/>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>99</v>
       </c>
       <c r="I7" s="26"/>
@@ -1879,11 +1891,11 @@
       <c r="D14" s="25">
         <v>0.75</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>100</v>
       </c>
       <c r="F14" s="26"/>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>100</v>
       </c>
       <c r="H14" s="26"/>
@@ -1900,11 +1912,11 @@
       <c r="D15" s="25">
         <v>0.79166666666666696</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>100</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>100</v>
       </c>
       <c r="H15" s="26"/>
@@ -1921,11 +1933,11 @@
       <c r="D16" s="25">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>101</v>
       </c>
       <c r="H16" s="26"/>
@@ -1942,11 +1954,11 @@
       <c r="D17" s="25">
         <v>0.875</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="H17" s="26"/>
@@ -2000,29 +2012,36 @@
       <c r="A24" t="s">
         <v>102</v>
       </c>
+      <c r="E24" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="27" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2218,13 +2237,13 @@
       <c r="D36" s="25">
         <v>0.75</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="28" t="s">
         <v>109</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="28" t="s">
         <v>109</v>
       </c>
       <c r="H36" s="26" t="s">
@@ -2243,16 +2262,16 @@
       <c r="D37" s="25">
         <v>0.79166666666666696</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="29" t="s">
         <v>107</v>
       </c>
       <c r="I37" s="26"/>
@@ -2268,16 +2287,16 @@
       <c r="D38" s="25">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>107</v>
       </c>
       <c r="I38" s="26"/>
@@ -2293,16 +2312,16 @@
       <c r="D39" s="25">
         <v>0.875</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="29" t="s">
         <v>108</v>
       </c>
       <c r="I39" s="26"/>
@@ -2319,11 +2338,11 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="E40" s="26"/>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="29" t="s">
         <v>108</v>
       </c>
       <c r="G40" s="26"/>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="29" t="s">
         <v>108</v>
       </c>
       <c r="I40" s="26"/>
@@ -2352,27 +2371,27 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="H47" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="28" t="s">
+      <c r="I47" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J47" s="27" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2567,13 +2586,13 @@
       <c r="D58" s="25">
         <v>0.75</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="29" t="s">
         <v>100</v>
       </c>
       <c r="F58" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="30" t="s">
+      <c r="G58" s="29" t="s">
         <v>100</v>
       </c>
       <c r="H58" s="26"/>
@@ -2592,17 +2611,17 @@
       <c r="D59" s="25">
         <v>0.79166666666666696</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="30" t="s">
+      <c r="G59" s="29" t="s">
         <v>100</v>
       </c>
       <c r="H59" s="26"/>
-      <c r="I59" s="29" t="s">
+      <c r="I59" s="28" t="s">
         <v>112</v>
       </c>
       <c r="J59" s="26"/>
@@ -2617,17 +2636,17 @@
       <c r="D60" s="25">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G60" s="30" t="s">
+      <c r="G60" s="29" t="s">
         <v>101</v>
       </c>
       <c r="H60" s="26"/>
-      <c r="I60" s="29" t="s">
+      <c r="I60" s="28" t="s">
         <v>112</v>
       </c>
       <c r="J60" s="26"/>
@@ -2642,17 +2661,17 @@
       <c r="D61" s="25">
         <v>0.875</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G61" s="29" t="s">
         <v>101</v>
       </c>
       <c r="H61" s="26"/>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J61" s="26"/>
@@ -2668,12 +2687,12 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="E62" s="26"/>
-      <c r="F62" s="29" t="s">
+      <c r="F62" s="28" t="s">
         <v>113</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="29" t="s">
+      <c r="I62" s="28" t="s">
         <v>113</v>
       </c>
       <c r="J62" s="26"/>
@@ -2701,27 +2720,27 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="28" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="G69" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H69" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I69" s="28" t="s">
+      <c r="I69" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="28" t="s">
+      <c r="J69" s="27" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2778,7 +2797,7 @@
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
-      <c r="J72" s="29" t="s">
+      <c r="J72" s="28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2797,7 +2816,7 @@
       <c r="G73" s="26"/>
       <c r="H73" s="26"/>
       <c r="I73" s="26"/>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2816,7 +2835,7 @@
       <c r="G74" s="26"/>
       <c r="H74" s="26"/>
       <c r="I74" s="26"/>
-      <c r="J74" s="29" t="s">
+      <c r="J74" s="28" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2835,7 +2854,7 @@
       <c r="G75" s="26"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="29" t="s">
+      <c r="J75" s="28" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2940,11 +2959,11 @@
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
-      <c r="G81" s="30" t="s">
+      <c r="G81" s="29" t="s">
         <v>116</v>
       </c>
       <c r="H81" s="26"/>
-      <c r="I81" s="30" t="s">
+      <c r="I81" s="29" t="s">
         <v>116</v>
       </c>
       <c r="J81" s="26"/>
@@ -2961,13 +2980,13 @@
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
-      <c r="G82" s="30" t="s">
+      <c r="G82" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H82" s="29" t="s">
+      <c r="H82" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I82" s="30" t="s">
+      <c r="I82" s="29" t="s">
         <v>116</v>
       </c>
       <c r="J82" s="26"/>
@@ -2984,13 +3003,13 @@
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
-      <c r="G83" s="30" t="s">
+      <c r="G83" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H83" s="29" t="s">
+      <c r="H83" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I83" s="30" t="s">
+      <c r="I83" s="29" t="s">
         <v>117</v>
       </c>
       <c r="J83" s="26"/>
@@ -3007,13 +3026,13 @@
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
-      <c r="G84" s="30" t="s">
+      <c r="G84" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I84" s="30" t="s">
+      <c r="I84" s="29" t="s">
         <v>117</v>
       </c>
       <c r="J84" s="26"/>
@@ -3031,18 +3050,19 @@
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
-      <c r="H85" s="29" t="s">
+      <c r="H85" s="28" t="s">
         <v>115</v>
       </c>
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
